--- a/Peru Data Analysis/Fortran Input File/CVO2CO2_sheet.xlsx
+++ b/Peru Data Analysis/Fortran Input File/CVO2CO2_sheet.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\Tatum‘s Group\FORTRAN_Rewrite\Peru Data Analysis\Fortran Input File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FED45E3E-6986-4927-9A3B-AC78C214C296}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0EA6A2-2C6D-4C0D-A56F-9C4DF15B79D6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC9A337A-3AFD-4415-B28E-FF31C3A37D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Calc_CVO2CO2_values" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -365,71 +362,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CVO2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>CaO2</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -510,76 +455,235 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Calc_CVO2CO2_values!$J$6:$J$25</c:f>
+              <c:f>Calc_CVO2CO2_values!$H$6:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.0232776531100178</c:v>
+                  <c:v>24.335087282113722</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6482692007308586</c:v>
+                  <c:v>20.754767978084967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0789379372925403</c:v>
+                  <c:v>27.578075483411595</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3387155282361931</c:v>
+                  <c:v>21.342677629986849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.370611848917749</c:v>
+                  <c:v>26.843394387593328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6292755021414287</c:v>
+                  <c:v>20.395871825545626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.36222526838854</c:v>
+                  <c:v>24.243998577715708</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5075131402859974</c:v>
+                  <c:v>17.99716131022366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9466363288783803</c:v>
+                  <c:v>20.87092367608691</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9038349088040416</c:v>
+                  <c:v>18.574491755440583</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1050644903622882</c:v>
+                  <c:v>21.746685832687326</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.074684547536858</c:v>
+                  <c:v>18.787691010627618</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.3894359207940994</c:v>
+                  <c:v>19.729159469899756</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.9456155246006404</c:v>
+                  <c:v>20.28832278613255</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5198643455926018</c:v>
+                  <c:v>19.665787975408868</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1624462029754206</c:v>
+                  <c:v>20.869326098816884</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.9359408713884658</c:v>
+                  <c:v>21.410584513269647</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.8613003605611951</c:v>
+                  <c:v>17.716838629007537</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.5460955189648065</c:v>
+                  <c:v>19.50004420477147</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.0542908817112622</c:v>
+                  <c:v>22.137229149406007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A03-4A9A-A6E0-8B681C28029D}"/>
+              <c16:uniqueId val="{00000000-9D87-4CD4-83AF-0C1747FA0C8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CaCO2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Calc_CVO2CO2_values!$A$6:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>CMS02_PR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CMS02_PO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CMS03_PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CMS03_PO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMS04_PR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CMS04_PO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CMS05_PR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CMS05_PO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CMS06_PR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CMS06_PO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CMS07_PR</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMS07_PO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CON01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CON02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CON03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CON04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CON06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CON07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CON08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CON09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calc_CVO2CO2_values!$I$6:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>17.605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.280999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.542999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.239000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.643999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.635000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.175000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.117000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.827000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.513000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.300999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.611000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.042999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.053999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.423999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D87-4CD4-83AF-0C1747FA0C8A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -591,17 +695,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="-1225420464"/>
-        <c:axId val="-1225418144"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="593192912"/>
+        <c:axId val="593191312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1225420464"/>
+        <c:axId val="593192912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -639,7 +744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1225418144"/>
+        <c:crossAx val="593191312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -647,12 +752,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1225418144"/>
+        <c:axId val="593191312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -698,7 +803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1225420464"/>
+        <c:crossAx val="593192912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -710,83 +815,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CVCO2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -800,7 +830,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -815,297 +845,7 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Calc_CVO2CO2_values!$A$6:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>CMS02_PR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CMS02_PO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CMS03_PR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CMS03_PO</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CMS04_PR</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CMS04_PO</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CMS05_PR</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CMS05_PO</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CMS06_PR</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CMS06_PO</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>CMS07_PR</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>CMS07_PO</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>CON01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>CON02</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>CON03</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>CON04</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>CON06</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>CON07</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>CON08</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>CON09</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Calc_CVO2CO2_values!$K$6:$K$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>41.039860930382666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.234574215965623</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.408930754317893</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50.514658711058736</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.270047162628288</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36.406538813374297</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40.198440181613435</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39.14845908471262</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46.091135610969559</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>48.832261420623723</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>39.569902412384565</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>36.693377333323149</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33.582124229991919</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35.260029563633879</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>38.460619148553882</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37.48513038608202</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41.285386380781617</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>40.498347261081143</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>39.693597826742931</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29.453426807629768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4079-4A18-B39D-DCE1F145782E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="-1199230896"/>
-        <c:axId val="-1199402096"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-1199230896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1199402096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1199402096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1199230896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1183,48 +923,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1428,23 +1128,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1549,8 +1248,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1682,525 +1381,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2237,29 +1430,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>44584</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>148344</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>187297</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>911968</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>44584</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>42903</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1476ED-2923-417F-BC38-392BBBBD32C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD237224-B52C-4901-A27A-D02490187FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2273,287 +1464,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>932001</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>145915</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>963385</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8758E64B-4D0C-4D89-9217-2E5B16ACB824}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Kelman_values"/>
-      <sheetName val="Calc_CVO2CO2_values"/>
-      <sheetName val="PFROMC_values"/>
-      <sheetName val="NOTHETA_DL"/>
-      <sheetName val="NOTHETA_DM"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>CMS02_PR</v>
-          </cell>
-          <cell r="J6">
-            <v>6.0232776531100178</v>
-          </cell>
-          <cell r="K6">
-            <v>41.039860930382666</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>CMS02_PO</v>
-          </cell>
-          <cell r="J7">
-            <v>5.6482692007308586</v>
-          </cell>
-          <cell r="K7">
-            <v>42.234574215965623</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>CMS03_PR</v>
-          </cell>
-          <cell r="J8">
-            <v>8.0789379372925403</v>
-          </cell>
-          <cell r="K8">
-            <v>42.408930754317893</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>CMS03_PO</v>
-          </cell>
-          <cell r="J9">
-            <v>1.3387155282361931</v>
-          </cell>
-          <cell r="K9">
-            <v>50.514658711058736</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>CMS04_PR</v>
-          </cell>
-          <cell r="J10">
-            <v>12.370611848917749</v>
-          </cell>
-          <cell r="K10">
-            <v>37.270047162628288</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>CMS04_PO</v>
-          </cell>
-          <cell r="J11">
-            <v>7.6292755021414287</v>
-          </cell>
-          <cell r="K11">
-            <v>36.406538813374297</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>CMS05_PR</v>
-          </cell>
-          <cell r="J12">
-            <v>10.36222526838854</v>
-          </cell>
-          <cell r="K12">
-            <v>40.198440181613435</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>CMS05_PO</v>
-          </cell>
-          <cell r="J13">
-            <v>4.5075131402859974</v>
-          </cell>
-          <cell r="K13">
-            <v>39.14845908471262</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>CMS06_PR</v>
-          </cell>
-          <cell r="J14">
-            <v>4.9466363288783803</v>
-          </cell>
-          <cell r="K14">
-            <v>46.091135610969559</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>CMS06_PO</v>
-          </cell>
-          <cell r="J15">
-            <v>2.9038349088040416</v>
-          </cell>
-          <cell r="K15">
-            <v>48.832261420623723</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>CMS07_PR</v>
-          </cell>
-          <cell r="J16">
-            <v>4.1050644903622882</v>
-          </cell>
-          <cell r="K16">
-            <v>39.569902412384565</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>CMS07_PO</v>
-          </cell>
-          <cell r="J17">
-            <v>4.074684547536858</v>
-          </cell>
-          <cell r="K17">
-            <v>36.693377333323149</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>CON01</v>
-          </cell>
-          <cell r="J18">
-            <v>8.3894359207940994</v>
-          </cell>
-          <cell r="K18">
-            <v>33.582124229991919</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>CON02</v>
-          </cell>
-          <cell r="J19">
-            <v>6.9456155246006404</v>
-          </cell>
-          <cell r="K19">
-            <v>35.260029563633879</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>CON03</v>
-          </cell>
-          <cell r="J20">
-            <v>3.5198643455926018</v>
-          </cell>
-          <cell r="K20">
-            <v>38.460619148553882</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>CON04</v>
-          </cell>
-          <cell r="J21">
-            <v>4.1624462029754206</v>
-          </cell>
-          <cell r="K21">
-            <v>37.48513038608202</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>CON06</v>
-          </cell>
-          <cell r="J22">
-            <v>7.9359408713884658</v>
-          </cell>
-          <cell r="K22">
-            <v>41.285386380781617</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>CON07</v>
-          </cell>
-          <cell r="J23">
-            <v>5.8613003605611951</v>
-          </cell>
-          <cell r="K23">
-            <v>40.498347261081143</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>CON08</v>
-          </cell>
-          <cell r="J24">
-            <v>7.5460955189648065</v>
-          </cell>
-          <cell r="K24">
-            <v>39.693597826742931</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>CON09</v>
-          </cell>
-          <cell r="J25">
-            <v>9.0542908817112622</v>
-          </cell>
-          <cell r="K25">
-            <v>29.453426807629768</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2856,9 +1767,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3127,7 +2038,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" si="0"/>
+        <f>H:H-(E:E/(10*G:G))</f>
         <v>8.0789379372925403</v>
       </c>
       <c r="K8" s="8">
